--- a/2017年每月提成表/12月份提成表正式版（12-28）.xlsx
+++ b/2017年每月提成表/12月份提成表正式版（12-28）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -286,14 +286,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +785,30 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="7" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,30 +849,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,7 +925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,10 +957,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,7 +991,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1168,14 +1166,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -1197,33 +1195,33 @@
     <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:20" ht="27" customHeight="1">
+      <c r="A1" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48"/>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="50"/>
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
@@ -1248,7 +1246,7 @@
       <c r="J2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="35" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="33" t="s">
@@ -1273,8 +1271,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A3" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="9">
@@ -1327,8 +1325,8 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A4" s="52"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1356,31 +1354,31 @@
         <v>0</v>
       </c>
       <c r="K4" s="20">
-        <f>E4*20+F4*40+G4*60+H4*100+J4*300</f>
+        <f t="shared" ref="K4:K38" si="2">E4*20+F4*40+G4*60+H4*100+J4*300</f>
         <v>0</v>
       </c>
       <c r="L4" s="21">
-        <f t="shared" ref="L4:L40" si="2">SUM(D4,K4)</f>
+        <f t="shared" ref="L4:L40" si="3">SUM(D4,K4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="23">
-        <f t="shared" ref="M4:M40" si="3">(K4*0.3)</f>
+        <f t="shared" ref="M4:M40" si="4">(K4*0.3)</f>
         <v>0</v>
       </c>
       <c r="N4" s="23">
-        <f t="shared" ref="N4:N26" si="4">D4*0.15</f>
+        <f t="shared" ref="N4:N26" si="5">D4*0.15</f>
         <v>0</v>
       </c>
       <c r="O4" s="23">
-        <f t="shared" ref="O4:O26" si="5">D4*0.15</f>
+        <f t="shared" ref="O4:O26" si="6">D4*0.15</f>
         <v>0</v>
       </c>
       <c r="P4" s="25"/>
       <c r="Q4" s="24"/>
       <c r="R4" s="27"/>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A5" s="52"/>
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1408,31 +1406,31 @@
         <v>0</v>
       </c>
       <c r="K5" s="20">
-        <f>E5*20+F5*40+G5*60+H5*100+J5*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M5" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N5" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O5" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="27"/>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A6" s="52"/>
       <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
@@ -1460,23 +1458,23 @@
         <v>0</v>
       </c>
       <c r="K6" s="20">
-        <f>E6*20+F6*40+G6*60+H6*100+J6*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M6" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N6" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O6" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P6" s="25"/>
@@ -1487,8 +1485,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A7" s="52"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1516,23 +1514,23 @@
         <v>0</v>
       </c>
       <c r="K7" s="20">
-        <f>E7*20+F7*40+G7*60+H7*100+J7*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M7" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N7" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O7" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P7" s="24"/>
@@ -1543,8 +1541,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A8" s="52"/>
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
@@ -1572,23 +1570,23 @@
         <v>0</v>
       </c>
       <c r="K8" s="20">
-        <f>E8*20+F8*40+G8*60+H8*100+J8*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N8" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O8" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P8" s="24"/>
@@ -1599,8 +1597,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A9" s="52"/>
       <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
@@ -1628,31 +1626,31 @@
         <v>0</v>
       </c>
       <c r="K9" s="20">
-        <f>E9*20+F9*40+G9*60+H9*100+J9*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N9" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O9" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
       <c r="R9" s="27"/>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A10" s="52"/>
       <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1680,31 +1678,31 @@
         <v>0</v>
       </c>
       <c r="K10" s="20">
-        <f>E10*20+F10*40+G10*60+H10*100+J10*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O10" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A11" s="52"/>
       <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
@@ -1732,31 +1730,31 @@
         <v>0</v>
       </c>
       <c r="K11" s="20">
-        <f>E11*20+F11*40+G11*60+H11*100+J11*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O11" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P11" s="25"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A12" s="52"/>
       <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1784,31 +1782,31 @@
         <v>0</v>
       </c>
       <c r="K12" s="20">
-        <f>E12*20+F12*40+G12*60+H12*100+J12*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O12" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P12" s="25"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="27"/>
     </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A13" s="52"/>
       <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
@@ -1836,31 +1834,31 @@
         <v>0</v>
       </c>
       <c r="K13" s="20">
-        <f>E13*20+F13*40+G13*60+H13*100+J13*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N13" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P13" s="25"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A14" s="52"/>
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
@@ -1888,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="K14" s="20">
-        <f>E14*20+F14*40+G14*60+H14*100+J14*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N14" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O14" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P14" s="25"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A15" s="52"/>
       <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1940,31 +1938,31 @@
         <v>0</v>
       </c>
       <c r="K15" s="20">
-        <f>E15*20+F15*40+G15*60+H15*100+J15*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O15" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P15" s="25"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="27"/>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A16" s="52"/>
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1992,31 +1990,31 @@
         <v>0</v>
       </c>
       <c r="K16" s="20">
-        <f>E16*20+F16*40+G16*60+H16*100+J16*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O16" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P16" s="25"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="27"/>
     </row>
-    <row r="17" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
+    <row r="17" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A17" s="52"/>
       <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
@@ -2044,31 +2042,31 @@
         <v>0</v>
       </c>
       <c r="K17" s="20">
-        <f>E17*20+F17*40+G17*60+H17*100+J17*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M17" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P17" s="25"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
-    <row r="18" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
+    <row r="18" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A18" s="52"/>
       <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
@@ -2096,31 +2094,31 @@
         <v>0</v>
       </c>
       <c r="K18" s="20">
-        <f>E18*20+F18*40+G18*60+H18*100+J18*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M18" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N18" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P18" s="25"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="27"/>
     </row>
-    <row r="19" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
+    <row r="19" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A19" s="52"/>
       <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
@@ -2148,31 +2146,31 @@
         <v>0</v>
       </c>
       <c r="K19" s="20">
-        <f>E19*20+F19*40+G19*60+H19*100+J19*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P19" s="25"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="27"/>
     </row>
-    <row r="20" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A20" s="52"/>
       <c r="B20" s="9" t="s">
         <v>33</v>
       </c>
@@ -2200,31 +2198,31 @@
         <v>0</v>
       </c>
       <c r="K20" s="20">
-        <f>E20*20+F20*40+G20*60+H20*100+J20*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M20" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O20" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P20" s="25"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="27"/>
     </row>
-    <row r="21" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
+    <row r="21" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A21" s="52"/>
       <c r="B21" s="9" t="s">
         <v>8</v>
       </c>
@@ -2252,31 +2250,31 @@
         <v>0</v>
       </c>
       <c r="K21" s="20">
-        <f>E21*20+F21*40+G21*60+H21*100+J21*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M21" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P21" s="25"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="27"/>
     </row>
-    <row r="22" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
+    <row r="22" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A22" s="52"/>
       <c r="B22" s="9" t="s">
         <v>1</v>
       </c>
@@ -2304,31 +2302,31 @@
         <v>0</v>
       </c>
       <c r="K22" s="20">
-        <f>E22*20+F22*40+G22*60+H22*100+J22*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M22" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P22" s="25"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="27"/>
     </row>
-    <row r="23" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A23" s="52"/>
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
@@ -2356,31 +2354,31 @@
         <v>0</v>
       </c>
       <c r="K23" s="20">
-        <f>E23*20+F23*40+G23*60+H23*100+J23*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N23" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O23" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P23" s="25"/>
       <c r="Q23" s="24"/>
       <c r="R23" s="27"/>
     </row>
-    <row r="24" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A24" s="52"/>
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
@@ -2408,31 +2406,31 @@
         <v>0</v>
       </c>
       <c r="K24" s="20">
-        <f>E24*20+F24*40+G24*60+H24*100+J24*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="25"/>
       <c r="Q24" s="24"/>
       <c r="R24" s="27"/>
     </row>
-    <row r="25" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
+    <row r="25" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A25" s="52"/>
       <c r="B25" s="9" t="s">
         <v>34</v>
       </c>
@@ -2460,31 +2458,31 @@
         <v>0</v>
       </c>
       <c r="K25" s="20">
-        <f>E25*20+F25*40+G25*60+H25*100+J25*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O25" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P25" s="25"/>
       <c r="Q25" s="24"/>
       <c r="R25" s="27"/>
     </row>
-    <row r="26" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
+    <row r="26" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A26" s="52"/>
       <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
@@ -2512,31 +2510,31 @@
         <v>0</v>
       </c>
       <c r="K26" s="20">
-        <f>E26*20+F26*40+G26*60+H26*100+J26*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M26" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N26" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O26" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P26" s="25"/>
       <c r="Q26" s="24"/>
       <c r="R26" s="27"/>
     </row>
-    <row r="27" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
+    <row r="27" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A27" s="52"/>
       <c r="B27" s="9" t="s">
         <v>48</v>
       </c>
@@ -2564,15 +2562,15 @@
         <v>0</v>
       </c>
       <c r="K27" s="20">
-        <f>E27*20+F27*40+G27*60+H27*100+J27*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M27" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N27" s="23">
@@ -2587,8 +2585,8 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="27"/>
     </row>
-    <row r="28" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
+    <row r="28" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A28" s="52"/>
       <c r="B28" s="9" t="s">
         <v>18</v>
       </c>
@@ -2616,31 +2614,31 @@
         <v>0</v>
       </c>
       <c r="K28" s="20">
-        <f>E28*20+F28*40+G28*60+H28*100+J28*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N28" s="23">
-        <f t="shared" ref="N28:N32" si="6">D28*0.15</f>
+        <f t="shared" ref="N28:N32" si="7">D28*0.15</f>
         <v>0</v>
       </c>
       <c r="O28" s="23">
-        <f t="shared" ref="O28:O32" si="7">D28*0.15</f>
+        <f t="shared" ref="O28:O32" si="8">D28*0.15</f>
         <v>0</v>
       </c>
       <c r="P28" s="25"/>
       <c r="Q28" s="24"/>
       <c r="R28" s="27"/>
     </row>
-    <row r="29" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A29" s="52"/>
       <c r="B29" s="9" t="s">
         <v>19</v>
       </c>
@@ -2668,31 +2666,31 @@
         <v>0</v>
       </c>
       <c r="K29" s="20">
-        <f>E29*20+F29*40+G29*60+H29*100+J29*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N29" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O29" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P29" s="25"/>
       <c r="Q29" s="24"/>
       <c r="R29" s="27"/>
     </row>
-    <row r="30" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
+    <row r="30" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A30" s="52"/>
       <c r="B30" s="9" t="s">
         <v>20</v>
       </c>
@@ -2720,31 +2718,31 @@
         <v>0</v>
       </c>
       <c r="K30" s="20">
-        <f>E30*20+F30*40+G30*60+H30*100+J30*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="M30" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N30" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="O30" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="P30" s="25"/>
       <c r="Q30" s="24"/>
       <c r="R30" s="27"/>
     </row>
-    <row r="31" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
+    <row r="31" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A31" s="52"/>
       <c r="B31" s="9" t="s">
         <v>21</v>
       </c>
@@ -2772,31 +2770,31 @@
         <v>0</v>
       </c>
       <c r="K31" s="20">
-        <f>E31*20+F31*40+G31*60+H31*100+J31*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M31" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N31" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O31" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P31" s="25"/>
       <c r="Q31" s="24"/>
       <c r="R31" s="27"/>
     </row>
-    <row r="32" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
+    <row r="32" spans="1:18" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A32" s="52"/>
       <c r="B32" s="9" t="s">
         <v>22</v>
       </c>
@@ -2824,23 +2822,23 @@
         <v>0</v>
       </c>
       <c r="K32" s="20">
-        <f>E32*20+F32*40+G32*60+H32*100+J32*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M32" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N32" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O32" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P32" s="25"/>
@@ -2849,8 +2847,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="44"/>
+    <row r="33" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A33" s="52"/>
       <c r="B33" s="9" t="s">
         <v>23</v>
       </c>
@@ -2878,15 +2876,15 @@
         <v>0</v>
       </c>
       <c r="K33" s="20">
-        <f>E33*20+F33*40+G33*60+H33*100+J33*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M33" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N33" s="23">
@@ -2904,8 +2902,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A34" s="52"/>
       <c r="B34" s="9" t="s">
         <v>24</v>
       </c>
@@ -2933,23 +2931,23 @@
         <v>0</v>
       </c>
       <c r="K34" s="20">
-        <f>E34*20+F34*40+G34*60+H34*100+J34*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M34" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N34" s="23">
-        <f t="shared" ref="N34:N40" si="8">D34*0.15</f>
+        <f t="shared" ref="N34:N40" si="9">D34*0.15</f>
         <v>0</v>
       </c>
       <c r="O34" s="23">
-        <f t="shared" ref="O34:O40" si="9">D34*0.15</f>
+        <f t="shared" ref="O34:O40" si="10">D34*0.15</f>
         <v>0</v>
       </c>
       <c r="P34" s="25"/>
@@ -2958,8 +2956,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
+    <row r="35" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A35" s="52"/>
       <c r="B35" s="9" t="s">
         <v>12</v>
       </c>
@@ -2987,34 +2985,34 @@
         <v>0</v>
       </c>
       <c r="K35" s="20">
-        <f>E35*20+F35*40+G35*60+H35*100+J35*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L35" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M35" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N35" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O35" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P35" s="25"/>
       <c r="Q35" s="24"/>
       <c r="R35" s="27">
         <f>E41</f>
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A36" s="52"/>
       <c r="B36" s="9" t="s">
         <v>13</v>
       </c>
@@ -3042,23 +3040,23 @@
         <v>0</v>
       </c>
       <c r="K36" s="20">
-        <f>E36*20+F36*40+G36*60+H36*100+J36*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M36" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N36" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O36" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P36" s="25"/>
@@ -3067,8 +3065,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A37" s="52"/>
       <c r="B37" s="9" t="s">
         <v>40</v>
       </c>
@@ -3096,34 +3094,34 @@
         <v>0</v>
       </c>
       <c r="K37" s="20">
-        <f>E37*20+F37*40+G37*60+H37*100+J37*300</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L37" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M37" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N37" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O37" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P37" s="25"/>
-      <c r="Q37" s="55"/>
+      <c r="Q37" s="41"/>
       <c r="R37" s="27">
         <f>C41+F41</f>
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A38" s="53"/>
       <c r="B38" s="9" t="s">
         <v>57</v>
       </c>
@@ -3151,23 +3149,23 @@
         <v>0</v>
       </c>
       <c r="K38" s="20">
-        <f>E38*20+F38*40+G38*60+H38*100+J38*300</f>
-        <v>60</v>
-      </c>
-      <c r="L38" s="21">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
+      <c r="L38" s="21">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
       <c r="M38" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="N38" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O38" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P38" s="25"/>
@@ -3176,8 +3174,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="46" t="s">
+    <row r="39" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A39" s="54" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -3191,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="20">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="F39" s="20">
         <v>2</v>
@@ -3199,50 +3197,50 @@
       <c r="G39" s="20">
         <v>0</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="34">
         <v>391</v>
       </c>
-      <c r="I39" s="48">
+      <c r="I39" s="34">
         <v>66</v>
       </c>
       <c r="J39" s="20">
         <v>1</v>
       </c>
-      <c r="K39" s="52">
+      <c r="K39" s="38">
         <f>E39*20+F39*40+G39*60+H37+I39+J39*5000</f>
-        <v>16266</v>
-      </c>
-      <c r="L39" s="54">
-        <f t="shared" si="2"/>
-        <v>16266</v>
+        <v>15866</v>
+      </c>
+      <c r="L39" s="40">
+        <f t="shared" si="3"/>
+        <v>15866</v>
       </c>
       <c r="M39" s="23">
-        <f t="shared" si="3"/>
-        <v>4879.8</v>
+        <f t="shared" si="4"/>
+        <v>4759.8</v>
       </c>
       <c r="N39" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O39" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P39" s="25">
         <f>P41*0.7</f>
-        <v>569.22599999999989</v>
+        <v>552.42599999999993</v>
       </c>
       <c r="Q39" s="25">
         <f>M39+P39</f>
-        <v>5449.0259999999998</v>
+        <v>5312.2260000000006</v>
       </c>
       <c r="R39" s="27">
         <f>G41</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="47"/>
+    <row r="40" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A40" s="55"/>
       <c r="B40" s="16" t="s">
         <v>42</v>
       </c>
@@ -3254,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="20">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F40" s="20">
         <v>1</v>
@@ -3262,50 +3260,50 @@
       <c r="G40" s="20">
         <v>0</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="34">
         <v>391</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="34">
         <v>61</v>
       </c>
       <c r="J40" s="20">
         <v>0</v>
       </c>
-      <c r="K40" s="52">
+      <c r="K40" s="38">
         <f>E40*20+F40*40+G40*60+H38+J40*300</f>
-        <v>10740</v>
-      </c>
-      <c r="L40" s="54">
-        <f t="shared" si="2"/>
-        <v>10740</v>
+        <v>10340</v>
+      </c>
+      <c r="L40" s="40">
+        <f t="shared" si="3"/>
+        <v>10340</v>
       </c>
       <c r="M40" s="23">
-        <f t="shared" si="3"/>
-        <v>3222</v>
+        <f t="shared" si="4"/>
+        <v>3102</v>
       </c>
       <c r="N40" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O40" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P40" s="25">
         <f>P41*0.3</f>
-        <v>243.95399999999998</v>
+        <v>236.75399999999996</v>
       </c>
       <c r="Q40" s="25">
         <f>M40+P40</f>
-        <v>3465.9540000000002</v>
+        <v>3338.7539999999999</v>
       </c>
       <c r="R40" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
+    <row r="41" spans="1:21" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="22">
         <f>SUM(C3:C40)</f>
         <v>1</v>
@@ -3316,36 +3314,36 @@
       </c>
       <c r="E41" s="28">
         <f>SUM(E3:E40)</f>
-        <v>1091</v>
+        <v>1051</v>
       </c>
       <c r="F41" s="28">
-        <f t="shared" ref="F41:J41" si="10">SUM(F3:F40)</f>
+        <f t="shared" ref="F41:J41" si="11">SUM(F3:F40)</f>
         <v>3</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>782</v>
       </c>
       <c r="I41" s="28"/>
       <c r="J41" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K41" s="53">
+      <c r="K41" s="39">
         <f>SUM(K3:K40)</f>
-        <v>27066</v>
+        <v>26266</v>
       </c>
       <c r="L41" s="30">
         <f>SUM(L3:L40)</f>
-        <v>27106</v>
+        <v>26306</v>
       </c>
       <c r="M41" s="12">
         <f>SUM(M3:M40)</f>
-        <v>8119.8</v>
+        <v>7879.8</v>
       </c>
       <c r="N41" s="12">
         <f>SUM(N3:N38)</f>
@@ -3357,20 +3355,20 @@
       </c>
       <c r="P41" s="11">
         <f>L41*0.03</f>
-        <v>813.18</v>
+        <v>789.18</v>
       </c>
       <c r="Q41" s="10">
         <f>SUM(M41:P41)</f>
-        <v>8944.98</v>
+        <v>8680.98</v>
       </c>
       <c r="R41" s="29">
         <f>SUM(C41:C41)+SUM(E41:J41)</f>
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A42" s="44"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -3379,7 +3377,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="50" t="s">
+      <c r="K42" s="36" t="s">
         <v>35</v>
       </c>
       <c r="L42" s="6"/>
@@ -3389,7 +3387,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="8"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -3400,14 +3398,14 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="51"/>
+      <c r="K43" s="37"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -3418,14 +3416,14 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="51"/>
+      <c r="K44" s="37"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21">
       <c r="U45" s="5"/>
     </row>
   </sheetData>
@@ -3445,12 +3443,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3459,12 +3457,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
